--- a/stock-金龙鱼.xlsx
+++ b/stock-金龙鱼.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>交易日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,7 +436,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -525,7 +525,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C6" si="0">IF(B3="股票买入",(D3*E3+F3+G3+H3)*-1, D3*E3-F3-G3-H3)</f>
+        <f t="shared" ref="C3:C7" si="0">IF(B3="股票买入",(D3*E3+F3+G3+H3)*-1, D3*E3-F3-G3-H3)</f>
         <v>-9605.19</v>
       </c>
       <c r="D3" s="2">
@@ -542,7 +542,7 @@
         <v>0.19</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H6" si="1">ROUND(IF(B3="股票买入",0,D3*E3*0.1%),2)</f>
+        <f t="shared" ref="H3:H7" si="1">ROUND(IF(B3="股票买入",0,D3*E3*0.1%),2)</f>
         <v>0</v>
       </c>
       <c r="J3" s="1">
@@ -657,6 +657,35 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>-8621.17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43.08</v>
+      </c>
+      <c r="E7" s="2">
+        <v>200</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <f>ROUND(D7*E7*0.002%,2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F8" s="2"/>
     </row>
@@ -672,7 +701,7 @@
       </c>
       <c r="C13" s="2">
         <f>SUMIFS(C2:C12,B2:B12,"股票买入")</f>
-        <v>-42724.86</v>
+        <v>-51346.03</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -699,7 +728,7 @@
       </c>
       <c r="C16" s="2">
         <f>C13+C14+C15</f>
-        <v>7565.3499999999985</v>
+        <v>-1055.8199999999997</v>
       </c>
     </row>
   </sheetData>

--- a/stock-金龙鱼.xlsx
+++ b/stock-金龙鱼.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>交易日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,13 @@
   </si>
   <si>
     <t>委托余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票卖出</t>
+  </si>
+  <si>
+    <t>持仓股数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,11 +439,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -490,7 +497,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2">
-        <f>IF(B2="股票买入",(D2*E2+F2+G2+H2)*-1, D2*E2-F2-G2-H2)</f>
+        <f>IF(B2="股票买入",(D2*E2+F2+G2+H2)*-1, D2*E2*-1-F2-G2-H2)</f>
         <v>-10290.209999999999</v>
       </c>
       <c r="D2" s="2">
@@ -503,11 +510,11 @@
         <v>5</v>
       </c>
       <c r="G2" s="2">
-        <f>ROUND(D2*E2*0.002%,2)</f>
+        <f>IF(E2&gt;0,ROUND(D2*E2*0.002%,2),-ROUND(D2*E2*0.002%,2))</f>
         <v>0.21</v>
       </c>
       <c r="H2" s="2">
-        <f>ROUND(IF(B2="股票买入",0,D2*E2*0.1%),2)</f>
+        <f>ROUND(IF(B2="股票买入",0,-D2*E2*0.1%),2)</f>
         <v>0</v>
       </c>
       <c r="J2" s="1">
@@ -525,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C7" si="0">IF(B3="股票买入",(D3*E3+F3+G3+H3)*-1, D3*E3-F3-G3-H3)</f>
+        <f t="shared" ref="C3:C8" si="0">IF(B3="股票买入",(D3*E3+F3+G3+H3)*-1, D3*E3*-1-F3-G3-H3)</f>
         <v>-9605.19</v>
       </c>
       <c r="D3" s="2">
@@ -538,11 +545,11 @@
         <v>5</v>
       </c>
       <c r="G3" s="2">
-        <f>ROUND(D3*E3*0.002%,2)</f>
+        <f t="shared" ref="G3:G8" si="1">IF(E3&gt;0,ROUND(D3*E3*0.002%,2),-ROUND(D3*E3*0.002%,2))</f>
         <v>0.19</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H7" si="1">ROUND(IF(B3="股票买入",0,D3*E3*0.1%),2)</f>
+        <f t="shared" ref="H3:H8" si="2">ROUND(IF(B3="股票买入",0,-D3*E3*0.1%),2)</f>
         <v>0</v>
       </c>
       <c r="J3" s="1">
@@ -573,11 +580,11 @@
         <v>5</v>
       </c>
       <c r="G4" s="2">
-        <f>ROUND(D4*E4*0.002%,2)</f>
+        <f t="shared" si="1"/>
         <v>0.19</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
@@ -608,11 +615,11 @@
         <v>5</v>
       </c>
       <c r="G5" s="2">
-        <f>ROUND(D5*E5*0.002%,2)</f>
+        <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
@@ -643,11 +650,11 @@
         <v>5</v>
       </c>
       <c r="G6" s="2">
-        <f>ROUND(D6*E6*0.002%,2)</f>
+        <f t="shared" si="1"/>
         <v>0.09</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
@@ -678,16 +685,42 @@
         <v>5</v>
       </c>
       <c r="G7" s="2">
-        <f>ROUND(D7*E7*0.002%,2)</f>
+        <f t="shared" si="1"/>
         <v>0.17</v>
       </c>
       <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <f>IF(B8="股票买入",(D8*E8+F8+G8+H8)*-1, D8*E8*-1-F8-G8-H8)</f>
+        <v>9605.1899999999987</v>
+      </c>
+      <c r="D8" s="2">
+        <v>48.1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-200</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F8" s="2"/>
+        <v>0.19</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>9.6199999999999992</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F9" s="2"/>
@@ -709,7 +742,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2">
-        <f>SUM(K2:K257)</f>
+        <f>SUM(K2:K258)</f>
         <v>50290.21</v>
       </c>
     </row>
@@ -719,16 +752,25 @@
       </c>
       <c r="C15" s="2">
         <f>SUMIFS(C2:C12,B2:B12,"股票卖出")</f>
-        <v>0</v>
+        <v>9605.1899999999987</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2">
+        <f>SUM(E2:E12)</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <f>C13+C14+C15</f>
-        <v>-1055.8199999999997</v>
+        <v>8549.369999999999</v>
       </c>
     </row>
   </sheetData>

--- a/stock-金龙鱼.xlsx
+++ b/stock-金龙鱼.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>交易日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,7 +443,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C8" si="0">IF(B3="股票买入",(D3*E3+F3+G3+H3)*-1, D3*E3*-1-F3-G3-H3)</f>
+        <f t="shared" ref="C3:C7" si="0">IF(B3="股票买入",(D3*E3+F3+G3+H3)*-1, D3*E3*-1-F3-G3-H3)</f>
         <v>-9605.19</v>
       </c>
       <c r="D3" s="2">
@@ -545,11 +545,11 @@
         <v>5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G8" si="1">IF(E3&gt;0,ROUND(D3*E3*0.002%,2),-ROUND(D3*E3*0.002%,2))</f>
+        <f t="shared" ref="G3:G9" si="1">IF(E3&gt;0,ROUND(D3*E3*0.002%,2),-ROUND(D3*E3*0.002%,2))</f>
         <v>0.19</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H8" si="2">ROUND(IF(B3="股票买入",0,-D3*E3*0.1%),2)</f>
+        <f t="shared" ref="H3:H9" si="2">ROUND(IF(B3="股票买入",0,-D3*E3*0.1%),2)</f>
         <v>0</v>
       </c>
       <c r="J3" s="1">
@@ -723,7 +723,33 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F9" s="2"/>
+      <c r="A9" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <f>IF(B9="股票买入",(D9*E9+F9+G9+H9)*-1, D9*E9*-1-F9-G9-H9)</f>
+        <v>9984.7999999999993</v>
+      </c>
+      <c r="D9" s="2">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-200</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="2">
+        <f>ROUND(IF(B9="股票买入",0,-D9*E9*0.1%),2)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F10" s="2"/>
@@ -752,7 +778,7 @@
       </c>
       <c r="C15" s="2">
         <f>SUMIFS(C2:C12,B2:B12,"股票卖出")</f>
-        <v>9605.1899999999987</v>
+        <v>19589.989999999998</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -761,7 +787,7 @@
       </c>
       <c r="C16" s="2">
         <f>SUM(E2:E12)</f>
-        <v>900</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
@@ -770,7 +796,7 @@
       </c>
       <c r="C17" s="2">
         <f>C13+C14+C15</f>
-        <v>8549.369999999999</v>
+        <v>18534.169999999998</v>
       </c>
     </row>
   </sheetData>

--- a/stock-金龙鱼.xlsx
+++ b/stock-金龙鱼.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>交易日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>转账总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>买入总金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,6 +89,30 @@
   </si>
   <si>
     <t>持仓股数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金提回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转出总金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -145,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,6 +183,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -439,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -454,10 +483,11 @@
     <col min="4" max="5" width="9" style="2"/>
     <col min="7" max="8" width="9" style="2"/>
     <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="2"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -486,10 +516,13 @@
         <v>11</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44120</v>
       </c>
@@ -520,11 +553,14 @@
       <c r="J2" s="1">
         <v>44120</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
         <v>10290.209999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44127</v>
       </c>
@@ -549,17 +585,20 @@
         <v>0.19</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H9" si="2">ROUND(IF(B3="股票买入",0,-D3*E3*0.1%),2)</f>
+        <f t="shared" ref="H3:H8" si="2">ROUND(IF(B3="股票买入",0,-D3*E3*0.1%),2)</f>
         <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>44127</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44130</v>
       </c>
@@ -590,11 +629,14 @@
       <c r="J4" s="1">
         <v>44130</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44131</v>
       </c>
@@ -625,11 +667,14 @@
       <c r="J5" s="1">
         <v>44131</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44131</v>
       </c>
@@ -660,11 +705,14 @@
       <c r="J6" s="1">
         <v>44131</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44134</v>
       </c>
@@ -692,13 +740,25 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J7" s="1">
+        <v>44138</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10290.209999999999</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <f>IF(B8="股票买入",(D8*E8+F8+G8+H8)*-1, D8*E8*-1-F8-G8-H8)</f>
@@ -722,12 +782,12 @@
         <v>9.6199999999999992</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
         <f>IF(B9="股票买入",(D9*E9+F9+G9+H9)*-1, D9*E9*-1-F9-G9-H9)</f>
@@ -751,52 +811,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F10" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2">
         <f>SUMIFS(C2:C12,B2:B12,"股票买入")</f>
         <v>-51346.03</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
-        <f>SUM(K2:K258)</f>
-        <v>50290.21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2">
         <f>SUMIFS(C2:C12,B2:B12,"股票卖出")</f>
         <v>19589.989999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2">
         <f>SUM(E2:E12)</f>
         <v>700</v>
       </c>
     </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2">
+        <f>SUMIF(K2:K12,"转入",L2:L12)</f>
+        <v>50290.21</v>
+      </c>
+    </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2">
-        <f>C13+C14+C15</f>
-        <v>18534.169999999998</v>
+        <f>SUMIF(K2:K12,"转出",L2:L12)</f>
+        <v>10290.209999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5">
+        <f>C16-C17+C13+C14</f>
+        <v>8243.9599999999991</v>
       </c>
     </row>
   </sheetData>

--- a/stock-金龙鱼.xlsx
+++ b/stock-金龙鱼.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>交易日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,18 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>买入总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖出总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委托余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>股票卖出</t>
   </si>
   <si>
@@ -113,6 +101,197 @@
   </si>
   <si>
     <t>转出总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前股价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓市值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清仓时价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓盈亏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>公式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>持仓市值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= 当前股价 × 持仓股数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利赠送(10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>公式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>盈利赠送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 持仓盈利 × 10%，亏损不相干</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终结算金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>公式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最终结算金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 转入总金额 - 转出总金额 + 持仓盈亏 - 盈利赠送</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← 请更新股价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票买入金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票卖出金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>公式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>清仓时价值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= 持仓市值 + 股票卖出金额</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>公式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>持仓盈亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 股票买入金额(负数) + 清仓时价值</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +317,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +369,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -171,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,6 +403,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -468,11 +706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -516,7 +754,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>12</v>
@@ -554,7 +792,7 @@
         <v>44120</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L2" s="2">
         <v>10290.209999999999</v>
@@ -592,7 +830,7 @@
         <v>44127</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L3" s="2">
         <v>10000</v>
@@ -630,7 +868,7 @@
         <v>44130</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L4" s="2">
         <v>10000</v>
@@ -668,7 +906,7 @@
         <v>44131</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L5" s="2">
         <v>10000</v>
@@ -706,7 +944,7 @@
         <v>44131</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L6" s="2">
         <v>10000</v>
@@ -721,10 +959,10 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>-8621.17</v>
+        <v>-9221.18</v>
       </c>
       <c r="D7" s="2">
-        <v>43.08</v>
+        <v>46.08</v>
       </c>
       <c r="E7" s="2">
         <v>200</v>
@@ -734,7 +972,7 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="2"/>
@@ -744,13 +982,13 @@
         <v>44138</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L7" s="2">
         <v>10290.209999999999</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -758,7 +996,7 @@
         <v>44137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
         <f>IF(B8="股票买入",(D8*E8+F8+G8+H8)*-1, D8*E8*-1-F8-G8-H8)</f>
@@ -787,7 +1025,7 @@
         <v>44137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
         <f>IF(B9="股票买入",(D9*E9+F9+G9+H9)*-1, D9*E9*-1-F9-G9-H9)</f>
@@ -816,16 +1054,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2">
         <f>SUMIFS(C2:C12,B2:B12,"股票买入")</f>
-        <v>-51346.03</v>
+        <v>-51946.04</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2">
         <f>SUMIFS(C2:C12,B2:B12,"股票卖出")</f>
@@ -834,7 +1072,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
         <f>SUM(E2:E12)</f>
@@ -843,29 +1081,96 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2">
         <f>SUMIF(K2:K12,"转入",L2:L12)</f>
         <v>50290.21</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2">
         <f>SUMIF(K2:K12,"转出",L2:L12)</f>
         <v>10290.209999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5">
-        <f>C16-C17+C13+C14</f>
-        <v>8243.9599999999991</v>
+    <row r="19" spans="1:12" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="10">
+        <v>60.9</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <f>C19*C15</f>
+        <v>42630</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
+        <f>C20+C14</f>
+        <v>62219.99</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <f>C21+C13</f>
+        <v>10273.949999999997</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2">
+        <f>IF(C22&gt;0,ROUND(C22*10%,2),0)</f>
+        <v>1027.4000000000001</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="12">
+        <f>C16-C17+C22-C23</f>
+        <v>49246.549999999996</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/stock-金龙鱼.xlsx
+++ b/stock-金龙鱼.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56116457-2E11-452B-83A9-4EF1D741CFD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C金龙鱼" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>交易日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,11 +295,15 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>可用本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -705,12 +710,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1097,86 +1102,95 @@
         <v>10290.209999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="10" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="4">
+        <f>C16-C17+C13+C14</f>
+        <v>7643.9499999999971</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C20" s="10">
         <v>60.9</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="2">
-        <f>C19*C15</f>
-        <v>42630</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="E20" s="10"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
-        <f>C20+C14</f>
-        <v>62219.99</v>
+        <f>C20*C15</f>
+        <v>42630</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
-        <f>C21+C13</f>
-        <v>10273.949999999997</v>
+        <f>C21+C14</f>
+        <v>62219.99</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2">
+        <f>C22+C13</f>
+        <v>10273.949999999997</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="2">
-        <f>IF(C22&gt;0,ROUND(C22*10%,2),0)</f>
+      <c r="C24" s="2">
+        <f>IF(C23&gt;0,ROUND(C23*10%,2),0)</f>
         <v>1027.4000000000001</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="12">
-        <f>C16-C17+C22-C23</f>
+      <c r="C25" s="12">
+        <f>C16-C17+C23-C24</f>
         <v>49246.549999999996</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"股票买入,股票卖出"</formula1>
     </dataValidation>
   </dataValidations>

--- a/stock-金龙鱼.xlsx
+++ b/stock-金龙鱼.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56116457-2E11-452B-83A9-4EF1D741CFD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225"/>
   </bookViews>
   <sheets>
     <sheet name="C金龙鱼" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>交易日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,11 +298,18 @@
     <t>可用本金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>股票买入</t>
+  </si>
+  <si>
+    <t>股票买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -710,12 +716,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -824,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G9" si="1">IF(E3&gt;0,ROUND(D3*E3*0.002%,2),-ROUND(D3*E3*0.002%,2))</f>
+        <f t="shared" ref="G3:G10" si="1">IF(E3&gt;0,ROUND(D3*E3*0.002%,2),-ROUND(D3*E3*0.002%,2))</f>
         <v>0.19</v>
       </c>
       <c r="H3" s="2">
@@ -960,7 +966,7 @@
         <v>44134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
@@ -1055,142 +1061,171 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F10" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2">
-        <f>SUMIFS(C2:C12,B2:B12,"股票买入")</f>
-        <v>-51946.04</v>
-      </c>
+      <c r="A10" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2">
+        <f>IF(B10="股票买入",(D10*E10+F10+G10+H10)*-1, D10*E10*-1-F10-G10-H10)</f>
+        <v>-5955.12</v>
+      </c>
+      <c r="D10" s="2">
+        <v>59.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="H10" s="2">
+        <f>ROUND(IF(B10="股票买入",0,-D10*E10*0.1%),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F11" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2">
-        <f>SUMIFS(C2:C12,B2:B12,"股票卖出")</f>
-        <v>19589.989999999998</v>
+        <f>SUMIFS(C2:C13,B2:B13,"股票买入")</f>
+        <v>-57901.16</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2">
-        <f>SUM(E2:E12)</f>
-        <v>700</v>
+        <f>SUMIFS(C2:C13,B2:B13,"股票卖出")</f>
+        <v>19589.989999999998</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
-        <f>SUMIF(K2:K12,"转入",L2:L12)</f>
-        <v>50290.21</v>
+        <f>SUM(E2:E13)</f>
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2">
-        <f>SUMIF(K2:K12,"转出",L2:L12)</f>
-        <v>10290.209999999999</v>
+        <f>SUMIF(K2:K13,"转入",L2:L13)</f>
+        <v>50290.21</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2">
+        <f>SUMIF(K2:K13,"转出",L2:L13)</f>
+        <v>10290.209999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="4">
-        <f>C16-C17+C13+C14</f>
-        <v>7643.9499999999971</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="10" t="s">
+      <c r="C19" s="4">
+        <f>C17-C18+C14+C15</f>
+        <v>1688.8299999999945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="10">
-        <v>60.9</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C21" s="10">
+        <v>59.5</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2">
-        <f>C20*C15</f>
-        <v>42630</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="E21" s="10"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2">
-        <f>C21+C14</f>
-        <v>62219.99</v>
+        <f>C21*C16</f>
+        <v>47600</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2">
-        <f>C22+C13</f>
-        <v>10273.949999999997</v>
+        <f>C22+C15</f>
+        <v>67189.989999999991</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2">
+        <f>C23+C14</f>
+        <v>9288.8299999999872</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="2">
-        <f>IF(C23&gt;0,ROUND(C23*10%,2),0)</f>
-        <v>1027.4000000000001</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="C25" s="2">
+        <f>IF(C24&gt;0,ROUND(C24*10%,2),0)</f>
+        <v>928.88</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="12">
-        <f>C16-C17+C23-C24</f>
-        <v>49246.549999999996</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C26" s="12">
+        <f>C17-C18+C24-C25</f>
+        <v>48359.94999999999</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B13">
       <formula1>"股票买入,股票卖出"</formula1>
     </dataValidation>
   </dataValidations>

--- a/stock-金龙鱼.xlsx
+++ b/stock-金龙鱼.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>交易日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -436,6 +436,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,7 +724,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -830,7 +833,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G10" si="1">IF(E3&gt;0,ROUND(D3*E3*0.002%,2),-ROUND(D3*E3*0.002%,2))</f>
+        <f t="shared" ref="G3:G11" si="1">IF(E3&gt;0,ROUND(D3*E3*0.002%,2),-ROUND(D3*E3*0.002%,2))</f>
         <v>0.19</v>
       </c>
       <c r="H3" s="2">
@@ -1090,7 +1093,33 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F11" s="2"/>
+      <c r="A11" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <f>IF(B11="股票买入",(D11*E11+F11+G11+H11)*-1, D11*E11*-1-F11-G11-H11)</f>
+        <v>6488.37</v>
+      </c>
+      <c r="D11" s="2">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-100</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+      <c r="H11" s="2">
+        <f>ROUND(IF(B11="股票买入",0,-D11*E11*0.1%),2)</f>
+        <v>6.5</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
@@ -1107,7 +1136,7 @@
       </c>
       <c r="C15" s="2">
         <f>SUMIFS(C2:C13,B2:B13,"股票卖出")</f>
-        <v>19589.989999999998</v>
+        <v>26078.359999999997</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1116,7 +1145,7 @@
       </c>
       <c r="C16" s="2">
         <f>SUM(E2:E13)</f>
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1143,7 +1172,7 @@
       </c>
       <c r="C19" s="4">
         <f>C17-C18+C14+C15</f>
-        <v>1688.8299999999945</v>
+        <v>8177.1999999999935</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1151,8 +1180,8 @@
       <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="10">
-        <v>59.5</v>
+      <c r="C21" s="13">
+        <v>64.510000000000005</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>30</v>
@@ -1168,7 +1197,7 @@
       </c>
       <c r="C22" s="2">
         <f>C21*C16</f>
-        <v>47600</v>
+        <v>45157</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>25</v>
@@ -1180,7 +1209,7 @@
       </c>
       <c r="C23" s="2">
         <f>C22+C15</f>
-        <v>67189.989999999991</v>
+        <v>71235.360000000001</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>33</v>
@@ -1192,7 +1221,7 @@
       </c>
       <c r="C24" s="2">
         <f>C23+C14</f>
-        <v>9288.8299999999872</v>
+        <v>13334.199999999997</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>34</v>
@@ -1204,7 +1233,7 @@
       </c>
       <c r="C25" s="2">
         <f>IF(C24&gt;0,ROUND(C24*10%,2),0)</f>
-        <v>928.88</v>
+        <v>1333.42</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>27</v>
@@ -1216,7 +1245,7 @@
       </c>
       <c r="C26" s="12">
         <f>C17-C18+C24-C25</f>
-        <v>48359.94999999999</v>
+        <v>52000.78</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>29</v>

--- a/stock-金龙鱼.xlsx
+++ b/stock-金龙鱼.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>交易日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -720,11 +720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -833,7 +833,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G11" si="1">IF(E3&gt;0,ROUND(D3*E3*0.002%,2),-ROUND(D3*E3*0.002%,2))</f>
+        <f t="shared" ref="G3:G12" si="1">IF(E3&gt;0,ROUND(D3*E3*0.002%,2),-ROUND(D3*E3*0.002%,2))</f>
         <v>0.19</v>
       </c>
       <c r="H3" s="2">
@@ -1121,140 +1121,169 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2">
-        <f>SUMIFS(C2:C13,B2:B13,"股票买入")</f>
-        <v>-57901.16</v>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2">
+        <f>IF(B12="股票买入",(D12*E12+F12+G12+H12)*-1, D12*E12*-1-F12-G12-H12)</f>
+        <v>-7405.15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2">
+        <v>100</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="H12" s="2">
+        <f>ROUND(IF(B12="股票买入",0,-D12*E12*0.1%),2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2">
-        <f>SUMIFS(C2:C13,B2:B13,"股票卖出")</f>
-        <v>26078.359999999997</v>
+        <f>SUMIFS(C2:C14,B2:B14,"股票买入")</f>
+        <v>-65306.310000000005</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2">
-        <f>SUM(E2:E13)</f>
-        <v>700</v>
+        <f>SUMIFS(C2:C14,B2:B14,"股票卖出")</f>
+        <v>26078.359999999997</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2">
-        <f>SUMIF(K2:K13,"转入",L2:L13)</f>
-        <v>50290.21</v>
+        <f>SUM(E2:E14)</f>
+        <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
-        <f>SUMIF(K2:K13,"转出",L2:L13)</f>
-        <v>10290.209999999999</v>
+        <f>SUMIF(K2:K14,"转入",L2:L14)</f>
+        <v>50290.21</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2">
+        <f>SUMIF(K2:K14,"转出",L2:L14)</f>
+        <v>10290.209999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="4">
-        <f>C17-C18+C14+C15</f>
-        <v>8177.1999999999935</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="10" t="s">
+      <c r="C20" s="4">
+        <f>C18-C19+C15+C16</f>
+        <v>772.049999999992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="13">
-        <v>64.510000000000005</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C22" s="13">
+        <v>74.09</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2">
-        <f>C21*C16</f>
-        <v>45157</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="E22" s="10"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2">
-        <f>C22+C15</f>
-        <v>71235.360000000001</v>
+        <f>C22*C17</f>
+        <v>59272</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2">
-        <f>C23+C14</f>
-        <v>13334.199999999997</v>
+        <f>C23+C16</f>
+        <v>85350.36</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2">
+        <f>C24+C15</f>
+        <v>20044.049999999996</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="2">
-        <f>IF(C24&gt;0,ROUND(C24*10%,2),0)</f>
-        <v>1333.42</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C26" s="2">
+        <f>IF(C25&gt;0,ROUND(C25*10%,2),0)</f>
+        <v>2004.41</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="12">
-        <f>C17-C18+C24-C25</f>
-        <v>52000.78</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C27" s="12">
+        <f>C18-C19+C25-C26</f>
+        <v>58039.639999999992</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B14">
       <formula1>"股票买入,股票卖出"</formula1>
     </dataValidation>
   </dataValidations>

--- a/stock-金龙鱼.xlsx
+++ b/stock-金龙鱼.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>交易日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +77,6 @@
   </si>
   <si>
     <t>持仓股数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金提回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -303,6 +299,26 @@
   </si>
   <si>
     <t>股票买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账面本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票现金提回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票现金提出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,11 +736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -737,6 +753,7 @@
     <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -768,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>12</v>
@@ -806,7 +823,7 @@
         <v>44120</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2">
         <v>10290.209999999999</v>
@@ -833,7 +850,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G12" si="1">IF(E3&gt;0,ROUND(D3*E3*0.002%,2),-ROUND(D3*E3*0.002%,2))</f>
+        <f t="shared" ref="G3:G13" si="1">IF(E3&gt;0,ROUND(D3*E3*0.002%,2),-ROUND(D3*E3*0.002%,2))</f>
         <v>0.19</v>
       </c>
       <c r="H3" s="2">
@@ -844,7 +861,7 @@
         <v>44127</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="2">
         <v>10000</v>
@@ -882,7 +899,7 @@
         <v>44130</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="2">
         <v>10000</v>
@@ -920,7 +937,7 @@
         <v>44131</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2">
         <v>10000</v>
@@ -958,7 +975,7 @@
         <v>44131</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="L6" s="2">
         <v>10000</v>
@@ -969,7 +986,7 @@
         <v>44134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
@@ -996,13 +1013,13 @@
         <v>44138</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" s="2">
         <v>10290.209999999999</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1033,6 +1050,18 @@
         <f t="shared" si="2"/>
         <v>9.6199999999999992</v>
       </c>
+      <c r="J8" s="1">
+        <v>44155</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="2">
+        <v>7000</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -1068,7 +1097,7 @@
         <v>44144</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <f>IF(B10="股票买入",(D10*E10+F10+G10+H10)*-1, D10*E10*-1-F10-G10-H10)</f>
@@ -1126,7 +1155,7 @@
         <v>44152</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
         <f>IF(B12="股票买入",(D12*E12+F12+G12+H12)*-1, D12*E12*-1-F12-G12-H12)</f>
@@ -1150,140 +1179,178 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2">
-        <f>SUMIFS(C2:C14,B2:B14,"股票买入")</f>
-        <v>-65306.310000000005</v>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2">
+        <f>IF(B13="股票买入",(D13*E13+F13+G13+H13)*-1, D13*E13*-1-F13-G13-H13)</f>
+        <v>-7145.1400000000012</v>
+      </c>
+      <c r="D13" s="2">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H13" s="2">
+        <f>ROUND(IF(B13="股票买入",0,-D13*E13*0.1%),2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <f>SUMIFS(C2:C14,B2:B14,"股票卖出")</f>
-        <v>26078.359999999997</v>
+        <f>SUMIFS(C2:C15,B2:B15,"股票买入")</f>
+        <v>-72451.450000000012</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
-        <f>SUM(E2:E14)</f>
-        <v>800</v>
+        <f>SUMIFS(C2:C15,B2:B15,"股票卖出")</f>
+        <v>26078.359999999997</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2">
-        <f>SUMIF(K2:K14,"转入",L2:L14)</f>
-        <v>50290.21</v>
+        <f>SUM(E2:E15)</f>
+        <v>900</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
-        <f>SUMIF(K2:K14,"转出",L2:L14)</f>
-        <v>10290.209999999999</v>
+        <f>SUMIF(K2:K15,"转入",L2:L15)</f>
+        <v>57290.21</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="4">
-        <f>C18-C19+C15+C16</f>
-        <v>772.049999999992</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="13">
-        <v>74.09</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2">
-        <f>C22*C17</f>
-        <v>59272</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2">
-        <f>C23+C16</f>
-        <v>85350.36</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C20" s="2">
+        <f>SUMIF(K2:K15,"转出",L2:L15)</f>
+        <v>10290.209999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2">
+        <f>C19-C20</f>
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4">
+        <f>C19-C20+C16+C17</f>
+        <v>626.9099999999853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="13">
+        <v>72.5</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2">
+        <f>C24*C18</f>
+        <v>65250</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C25" s="2">
-        <f>C24+C15</f>
-        <v>20044.049999999996</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2">
+        <f>C25+C17</f>
+        <v>91328.36</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2">
+        <f>C26+C16</f>
+        <v>18876.909999999989</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2">
+        <f>IF(C27&gt;0,ROUND(C27*10%,2),0)</f>
+        <v>1887.69</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="2">
-        <f>IF(C25&gt;0,ROUND(C25*10%,2),0)</f>
-        <v>2004.41</v>
-      </c>
-      <c r="D26" s="6" t="s">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
+      <c r="C29" s="12">
+        <f>C19-C20+C27-C28</f>
+        <v>63989.219999999987</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C27" s="12">
-        <f>C18-C19+C25-C26</f>
-        <v>58039.639999999992</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15">
       <formula1>"股票买入,股票卖出"</formula1>
     </dataValidation>
   </dataValidations>

--- a/stock-金龙鱼.xlsx
+++ b/stock-金龙鱼.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567F4E2F-FEEE-4D19-B183-A1451AF4E2A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C金龙鱼" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>交易日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,7 +326,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -735,17 +736,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
@@ -850,7 +851,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G13" si="1">IF(E3&gt;0,ROUND(D3*E3*0.002%,2),-ROUND(D3*E3*0.002%,2))</f>
+        <f t="shared" ref="G3:G14" si="1">IF(E3&gt;0,ROUND(D3*E3*0.002%,2),-ROUND(D3*E3*0.002%,2))</f>
         <v>0.19</v>
       </c>
       <c r="H3" s="2">
@@ -1030,7 +1031,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2">
-        <f>IF(B8="股票买入",(D8*E8+F8+G8+H8)*-1, D8*E8*-1-F8-G8-H8)</f>
+        <f t="shared" ref="C8:C14" si="3">IF(B8="股票买入",(D8*E8+F8+G8+H8)*-1, D8*E8*-1-F8-G8-H8)</f>
         <v>9605.1899999999987</v>
       </c>
       <c r="D8" s="2">
@@ -1071,7 +1072,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2">
-        <f>IF(B9="股票买入",(D9*E9+F9+G9+H9)*-1, D9*E9*-1-F9-G9-H9)</f>
+        <f t="shared" si="3"/>
         <v>9984.7999999999993</v>
       </c>
       <c r="D9" s="2">
@@ -1091,6 +1092,18 @@
         <f>ROUND(IF(B9="股票买入",0,-D9*E9*0.1%),2)</f>
         <v>10</v>
       </c>
+      <c r="J9" s="1">
+        <v>44159</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="2">
+        <v>7000</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -1100,7 +1113,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2">
-        <f>IF(B10="股票买入",(D10*E10+F10+G10+H10)*-1, D10*E10*-1-F10-G10-H10)</f>
+        <f t="shared" si="3"/>
         <v>-5955.12</v>
       </c>
       <c r="D10" s="2">
@@ -1129,7 +1142,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2">
-        <f>IF(B11="股票买入",(D11*E11+F11+G11+H11)*-1, D11*E11*-1-F11-G11-H11)</f>
+        <f t="shared" si="3"/>
         <v>6488.37</v>
       </c>
       <c r="D11" s="2">
@@ -1158,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="2">
-        <f>IF(B12="股票买入",(D12*E12+F12+G12+H12)*-1, D12*E12*-1-F12-G12-H12)</f>
+        <f t="shared" si="3"/>
         <v>-7405.15</v>
       </c>
       <c r="D12" s="2">
@@ -1187,7 +1200,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="2">
-        <f>IF(B13="股票买入",(D13*E13+F13+G13+H13)*-1, D13*E13*-1-F13-G13-H13)</f>
+        <f t="shared" si="3"/>
         <v>-7145.1400000000012</v>
       </c>
       <c r="D13" s="2">
@@ -1208,149 +1221,178 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2">
-        <f>SUMIFS(C2:C15,B2:B15,"股票买入")</f>
-        <v>-72451.450000000012</v>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="3"/>
+        <v>-6905.14</v>
+      </c>
+      <c r="D14" s="2">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>100</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <f>ROUND(IF(B14="股票买入",0,-D14*E14*0.1%),2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
-        <f>SUMIFS(C2:C15,B2:B15,"股票卖出")</f>
-        <v>26078.359999999997</v>
+        <f>SUMIFS(C2:C16,B2:B16,"股票买入")</f>
+        <v>-79356.590000000011</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2">
-        <f>SUM(E2:E15)</f>
-        <v>900</v>
+        <f>SUMIFS(C2:C16,B2:B16,"股票卖出")</f>
+        <v>26078.359999999997</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2">
-        <f>SUMIF(K2:K15,"转入",L2:L15)</f>
-        <v>57290.21</v>
+        <f>SUM(E2:E16)</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
-        <f>SUMIF(K2:K15,"转出",L2:L15)</f>
-        <v>10290.209999999999</v>
+        <f>SUMIF(K2:K16,"转入",L2:L16)</f>
+        <v>64290.21</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
-        <f>C19-C20</f>
-        <v>47000</v>
+        <f>SUMIF(K2:K16,"转出",L2:L16)</f>
+        <v>10290.209999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2">
+        <f>C20-C21</f>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="4">
-        <f>C19-C20+C16+C17</f>
-        <v>626.9099999999853</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="10" t="s">
+      <c r="C23" s="4">
+        <f>C20-C21+C17+C18</f>
+        <v>721.76999999998588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="13">
-        <v>72.5</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C25" s="13">
+        <v>69</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="2">
-        <f>C24*C18</f>
-        <v>65250</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="E25" s="10"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2">
-        <f>C25+C17</f>
-        <v>91328.36</v>
+        <f>C25*C19</f>
+        <v>69000</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2">
-        <f>C26+C16</f>
-        <v>18876.909999999989</v>
+        <f>C26+C18</f>
+        <v>95078.36</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2">
+        <f>C27+C17</f>
+        <v>15721.76999999999</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="2">
-        <f>IF(C27&gt;0,ROUND(C27*10%,2),0)</f>
-        <v>1887.69</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C29" s="2">
+        <f>IF(C28&gt;0,ROUND(C28*10%,2),0)</f>
+        <v>1572.18</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="5" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="12">
-        <f>C19-C20+C27-C28</f>
-        <v>63989.219999999987</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="C30" s="12">
+        <f>C20-C21+C28-C29</f>
+        <v>68149.59</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"股票买入,股票卖出"</formula1>
     </dataValidation>
   </dataValidations>
